--- a/data/trans_camb/P22_R3-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R3-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.086297011609249</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.8623552437856692</v>
+        <v>-0.862355243785669</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.1210328285903933</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.546340995668646</v>
+        <v>-1.543451847282795</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.831605629179515</v>
+        <v>-1.968607548248085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.174042687447057</v>
+        <v>-2.287104824957217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.505152760467885</v>
+        <v>-1.483831401084666</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.324563531582768</v>
+        <v>-2.303443336341727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.044372235528611</v>
+        <v>-1.959604677929073</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.068545506141775</v>
+        <v>-1.086720130270155</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.602167037627567</v>
+        <v>-1.578377764683616</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.901740552128419</v>
+        <v>-1.77335946685727</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.252993620637468</v>
+        <v>1.327393816698596</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8411664919039719</v>
+        <v>0.8426218507410774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4477587139208454</v>
+        <v>0.4316250990229717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.156365509904459</v>
+        <v>0.9843675425540528</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1254577185688658</v>
+        <v>-0.1493167431817421</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4108408064405817</v>
+        <v>0.4150975295290185</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7217881517859659</v>
+        <v>0.7639645411048113</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02529236166293161</v>
+        <v>0.04811024228874947</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08080333503221432</v>
+        <v>-0.04783025636491308</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.602441806378588</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4782475190985444</v>
+        <v>-0.4782475190985443</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.07173693399593611</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6275744667241638</v>
+        <v>-0.6659229010943525</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6933414616683239</v>
+        <v>-0.7432321484441049</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9427228136611268</v>
+        <v>-0.9464727783299982</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.589472615048477</v>
+        <v>-0.5864066427045619</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8668084639835546</v>
+        <v>-0.8531770047632863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8529731990964966</v>
+        <v>-0.8400346097585221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5063093933518287</v>
+        <v>-0.4797029536700577</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6964891059630473</v>
+        <v>-0.6779240724924502</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8288812420730842</v>
+        <v>-0.8198171437444739</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.655173093707619</v>
+        <v>1.684436775150203</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.152285545698759</v>
+        <v>1.063602234882461</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.088119672717097</v>
+        <v>1.076854178877283</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.061983604582416</v>
+        <v>0.869189536442622</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.01760421352857847</v>
+        <v>0.03743845442972331</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5805685035276038</v>
+        <v>0.4841453752401717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6450485886562756</v>
+        <v>0.6442363785255416</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06466465880182823</v>
+        <v>0.1237970136732116</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1918001161559651</v>
+        <v>0.01656870142321133</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.774839423311618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.127053967269985</v>
+        <v>-0.1270539672699852</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.9259798956673819</v>
@@ -878,7 +878,7 @@
         <v>0.5101138255020492</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.644315903731224</v>
+        <v>-1.644315903731225</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.07091737577680571</v>
+        <v>-0.09852643368816502</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2843106434263265</v>
+        <v>0.5033073385523188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.303651815654704</v>
+        <v>-1.175023279329608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.476179984924428</v>
+        <v>-2.565295026218453</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.50852337585828</v>
+        <v>-2.535598419612239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.561506787227728</v>
+        <v>-4.561401343335677</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8583376026820048</v>
+        <v>-0.9813637300845</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4911848194004707</v>
+        <v>-0.5462576646394767</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.503382667819986</v>
+        <v>-2.592971553711422</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.56202825923069</v>
+        <v>2.653990304422778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.162491026315657</v>
+        <v>3.292061700566037</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.17262255184358</v>
+        <v>1.295822974548797</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9037601810761383</v>
+        <v>0.7242496638000064</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8846724523133007</v>
+        <v>0.8318965517365341</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.964645391556281</v>
+        <v>-1.9657054576206</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.21878523486321</v>
+        <v>1.245738164702876</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.675737687754474</v>
+        <v>1.6459321439193</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.7905595772435894</v>
+        <v>-0.7981728675478463</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.169631556654646</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.08372945043099224</v>
+        <v>-0.08372945043099235</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2305058172854321</v>
@@ -983,7 +983,7 @@
         <v>0.1851360616815619</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.5967730246823788</v>
+        <v>-0.5967730246823789</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0878887469859254</v>
+        <v>-0.1105534337922851</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09066979061156842</v>
+        <v>0.1123531675579994</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6904600470952071</v>
+        <v>-0.6280355307496143</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5120498868731871</v>
+        <v>-0.5258963684917463</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5171975297571803</v>
+        <v>-0.5029427682308796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8861667604448354</v>
+        <v>-0.8933018969770028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2896372432588395</v>
+        <v>-0.3052459207296996</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1537290641618598</v>
+        <v>-0.1695966248833493</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7604270820938998</v>
+        <v>-0.7649793693827817</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.64846437298357</v>
+        <v>2.440863115545148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.173756988111501</v>
+        <v>3.030545297429431</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.251319825992202</v>
+        <v>1.417525840368709</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2917309637302441</v>
+        <v>0.2335072246522797</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2856914324885599</v>
+        <v>0.2802480699626776</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5915732571767334</v>
+        <v>-0.6071118920075751</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5420997620320795</v>
+        <v>0.5378895137959506</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7465620676199017</v>
+        <v>0.7655271335480236</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3347789041624818</v>
+        <v>-0.3407460031669351</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.02688406270832944</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.701307254415608</v>
+        <v>-1.701307254415607</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.2465121853374629</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.036275812229203</v>
+        <v>-0.9819625117723453</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4889496508741301</v>
+        <v>-0.3555884859055011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.564075335543374</v>
+        <v>-2.462341343289147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.530039639012721</v>
+        <v>-3.338933937309527</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.139487434013276</v>
+        <v>-2.161697297419181</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.495621394898244</v>
+        <v>-3.640553271330148</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.6594634995501</v>
+        <v>-1.684751727246309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7973365252564492</v>
+        <v>-0.5556203890825091</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.44693769588908</v>
+        <v>-2.473060501144913</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.38098082038642</v>
+        <v>3.683717260067303</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.200656533938099</v>
+        <v>4.36186388077591</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.579723403662538</v>
+        <v>1.664363883597223</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4093637634848763</v>
+        <v>0.4250650698743963</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.252651196803447</v>
+        <v>1.989443314512731</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05076692277638266</v>
+        <v>0.03318959859134562</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.3223346749271</v>
+        <v>1.318668812271047</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.65232876964963</v>
+        <v>2.59376125423025</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3234013696841191</v>
+        <v>0.240111556623461</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.005131642681582281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3247463382288475</v>
+        <v>-0.3247463382288474</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.04554190001717379</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1755385022277213</v>
+        <v>-0.1608116357967771</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0818401415840273</v>
+        <v>-0.07348520405544581</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3977740274634508</v>
+        <v>-0.3995745017054466</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5695525739326094</v>
+        <v>-0.5549177097639407</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3577045828879106</v>
+        <v>-0.3663056330739776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5438177828925671</v>
+        <v>-0.5521381921921578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2711954220813199</v>
+        <v>-0.2842274772617958</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1337840521763971</v>
+        <v>-0.1035216909762045</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3993114760736615</v>
+        <v>-0.4049771969615358</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6960632003917117</v>
+        <v>0.7785890169027815</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8934386362527752</v>
+        <v>0.8823108909547326</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3368729487316398</v>
+        <v>0.3761265467396305</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1026726397647084</v>
+        <v>0.1214858735567911</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.528484896993888</v>
+        <v>0.4588441095333425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0299354483317248</v>
+        <v>0.03172125845780361</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2973312648599921</v>
+        <v>0.2745537247016453</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5409589891894984</v>
+        <v>0.5361923206182601</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.07465797674232535</v>
+        <v>0.05013005134202914</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.8665589255015107</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.319494045054645</v>
+        <v>-3.319494045054644</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.401219991533041</v>
@@ -1306,7 +1306,7 @@
         <v>-0.5269733312501856</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.825602098215127</v>
+        <v>-3.825602098215128</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.83480514294708</v>
+        <v>-2.366303583855728</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.132721191616376</v>
+        <v>-3.369881345769325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.340467668730647</v>
+        <v>-6.853012727167565</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.669505088835267</v>
+        <v>-5.733887610507391</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.497612461986696</v>
+        <v>-6.183160481135978</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.092102719933282</v>
+        <v>-8.099528394539753</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.740707871452246</v>
+        <v>-2.660284636406498</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.241101134977106</v>
+        <v>-3.497167127760911</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.183414417203864</v>
+        <v>-6.595774925729904</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.689775201039923</v>
+        <v>5.66893095057345</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.774164458124563</v>
+        <v>4.330162378641709</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1108621569652437</v>
+        <v>-0.2917393662181272</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.856722098142506</v>
+        <v>2.776506693172461</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.670805459202758</v>
+        <v>2.139189885823664</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.153904431321783</v>
+        <v>-1.199852025597629</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.358300739610337</v>
+        <v>3.470593319181461</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.41491818894945</v>
+        <v>2.261885706525989</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.650030311023658</v>
+        <v>-1.690949093910362</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.09128139277706757</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3496681308456981</v>
+        <v>-0.349668130845698</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.140225695365903</v>
@@ -1411,7 +1411,7 @@
         <v>-0.05427249476180598</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3939952128954369</v>
+        <v>-0.393995212895437</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2513245249481584</v>
+        <v>-0.2200260771670617</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2674750380043517</v>
+        <v>-0.2892775603563476</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5526729607470202</v>
+        <v>-0.563702509629219</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4597214931072788</v>
+        <v>-0.4770756242863113</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4992788020691643</v>
+        <v>-0.5071298419034145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6190538228885923</v>
+        <v>-0.6111345767302095</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2442301770202674</v>
+        <v>-0.2504223968580441</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.288077165181278</v>
+        <v>-0.304684072992867</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5399176697799245</v>
+        <v>-0.5535966733740141</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7822786072063752</v>
+        <v>0.7383508079060127</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6548403284162294</v>
+        <v>0.5621417745898477</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.005147735981687546</v>
+        <v>-0.04110067247706</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.372726519896627</v>
+        <v>0.3949321194744426</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2170301696708504</v>
+        <v>0.3036200412937637</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.162789797625106</v>
+        <v>-0.1394211108746429</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4196436859095306</v>
+        <v>0.450935354996169</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2836012278158688</v>
+        <v>0.2768597552923674</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1913856443142113</v>
+        <v>-0.2114040630317618</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.1729292806338344</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.9590325703419098</v>
+        <v>-0.9590325703419105</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4908907630416926</v>
+        <v>-0.4962329655882741</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4165377420119467</v>
+        <v>-0.4366281958666146</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.278984267603819</v>
+        <v>-1.237899490441349</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.015557638735662</v>
+        <v>-1.805965303401492</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.914116116218788</v>
+        <v>-1.90435377403157</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.456260330161776</v>
+        <v>-2.470057828952812</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.8927159426282758</v>
+        <v>-0.9242651701439388</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8689875009775477</v>
+        <v>-0.8877050922775896</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.650657455824615</v>
+        <v>-1.595966189938886</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.707472860272981</v>
+        <v>1.686678771212788</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.712427711285545</v>
+        <v>1.597347812613962</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6967730286225807</v>
+        <v>0.7153131386613851</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02230434529086963</v>
+        <v>0.1346161453852842</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.01054965849636708</v>
+        <v>0.1548233531910941</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.7882036020334074</v>
+        <v>-0.7820160448938357</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5755266872489646</v>
+        <v>0.5011679625719957</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5216678525677745</v>
+        <v>0.5739762466366719</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.3461576021519535</v>
+        <v>-0.3151150495639881</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.04112635307561899</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2280788537044483</v>
+        <v>-0.2280788537044484</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1084735064203855</v>
+        <v>-0.1142744698927293</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09184225430163097</v>
+        <v>-0.09795376354506991</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2736519957602022</v>
+        <v>-0.2748245004780783</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4094161846478065</v>
+        <v>-0.3700078740473285</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3973601013265492</v>
+        <v>-0.3878024869715543</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4995969202135978</v>
+        <v>-0.494936082143936</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1983927941318757</v>
+        <v>-0.2020393416633843</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.193703265918808</v>
+        <v>-0.1940984013849181</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3533617145689971</v>
+        <v>-0.3525978713000268</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4760557842541555</v>
+        <v>0.4790807126813094</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.484690021882021</v>
+        <v>0.445730955109187</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1991137011050125</v>
+        <v>0.2204032527254871</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.005414130436547677</v>
+        <v>0.03898012118300907</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.002598216538375498</v>
+        <v>0.02692672787329745</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2046080115329446</v>
+        <v>-0.1954224897550135</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1462059646702236</v>
+        <v>0.1319703455429899</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1431889153331518</v>
+        <v>0.1495613217124249</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.09043113433571173</v>
+        <v>-0.08025358147999941</v>
       </c>
     </row>
     <row r="34">
